--- a/Outputs/PtX_demand_NL.xlsx
+++ b/Outputs/PtX_demand_NL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -493,53 +493,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2030</v>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>0.004849937118253851</v>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.0007355988565083813</v>
+      </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>2.747231989446974e-09</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0005684959714187</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2030</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.004849937118253851</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>0.01553277004395703</v>
+      </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>0.0007355988565083813</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>2.747231989446974e-09</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0005684959714187</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -547,7 +549,7 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0.01553277004395703</v>
+        <v>0.04109300256402446</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -560,16 +562,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2030</v>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>0.04109300256402446</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -581,7 +581,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -589,18 +589,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0.001117919891598643</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0001445082443118065</v>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>0.0001045785519216255</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -608,24 +614,18 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>0.001117919891598643</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0001445082443118065</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>0.0001045785519216255</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -634,17 +634,27 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.0126833508877942</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.000180631468834</v>
+      </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>0.0201073086329636</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0001371059994361</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0259973854341129</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -653,27 +663,17 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>0.0126833508877942</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.000180631468834</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>0.0201073086329636</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.0001371059994361</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.0259973854341129</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -681,7 +681,9 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>8.820543722503238e-05</v>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -692,74 +694,92 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2030</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>0.004849937118253851</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0566257726079815</v>
+      </c>
       <c r="E11" t="n">
-        <v>8.820543722503238e-05</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>0.001206125328823675</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.01356345798861439</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.000180631468834</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.747231989446974e-09</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.02078038315630393</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0001371059994361</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0259973854341129</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>2040</v>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>0.01992463443234875</v>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0.003584861244587386</v>
+      </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>2.299736609075437e-07</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0008298263079343</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>2040</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.01992463443234875</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>0.0168924454810686</v>
+      </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>0.003584861244587386</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>2.299736609075437e-07</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.0008298263079343</v>
-      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -767,7 +787,7 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>0.0168924454810686</v>
+        <v>0.04469011666957987</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -780,28 +800,30 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2040</v>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>0.04469011666957987</v>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>1.228488936317878e-09</v>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>2.590471797961311e-10</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -809,14 +831,16 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0.003849401952734385</v>
+      </c>
       <c r="F16" t="n">
-        <v>1.228488936317878e-09</v>
+        <v>0.000199066963544479</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>2.590471797961311e-10</v>
+        <v>0.0001783309686270224</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -824,7 +848,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -832,24 +856,18 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>0.003849401952734385</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.000199066963544479</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>0.0001783309686270224</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -858,17 +876,27 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.005149611513421999</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0002944590938452</v>
+      </c>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0.0133033051550514</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0001665615372356</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0301427250014024</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -877,27 +905,17 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>0.005149611513421999</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.0002944590938452</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>0.0133033051550514</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.0001665615372356</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.0301427250014024</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -905,7 +923,9 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>0.0003082428755395282</v>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -916,74 +936,92 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2040</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>0.01992463443234875</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.06158256215064847</v>
+      </c>
       <c r="E21" t="n">
-        <v>0.0003082428755395282</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>0.004157644828273913</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.008933540950042802</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0002944590938452</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.299736609075437e-07</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0143114626906599</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0001665615372356</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0301427250014024</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>2050</v>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>0.05183475366938666</v>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.004948462754339134</v>
+      </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>3.897868312291493e-07</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0013235829872827</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>2050</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.05183475366938666</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>0.0189887875350703</v>
+      </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>0.004948462754339134</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>3.897868312291493e-07</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.0013235829872827</v>
-      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -991,7 +1029,7 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>0.0189887875350703</v>
+        <v>0.05023613255447214</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
@@ -1004,28 +1042,30 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2050</v>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
-        <v>0.05023613255447214</v>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>4.26388055600474e-09</v>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>6.648712955993891e-09</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1033,14 +1073,16 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0.00730587944779736</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.26388055600474e-09</v>
+        <v>2.440111278495978e-05</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>6.648712955993891e-09</v>
+        <v>5.110695766263079e-05</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1048,7 +1090,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1056,24 +1098,28 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>0.00730587944779736</v>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>2.440111278495978e-05</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
+        <v>8.125075711298653e-11</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.084333688676964e-11</v>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>5.110695766263079e-05</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>2.205038687847974e-10</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.140750937685103e-12</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.589051001723168e-09</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1083,26 +1129,26 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>8.125075711298653e-11</v>
+        <v>0.0007273686614734217</v>
       </c>
       <c r="G28" t="n">
-        <v>1.084333688676964e-11</v>
+        <v>0.0005261467020982</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>2.205038687847974e-10</v>
+        <v>0.0034314317226407</v>
       </c>
       <c r="J28" t="n">
-        <v>1.140750937685103e-12</v>
+        <v>0.0002142245127542</v>
       </c>
       <c r="K28" t="n">
-        <v>2.589051001723168e-09</v>
+        <v>0.0425923219994788</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1111,27 +1157,17 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
-        <v>0.0007273686614734217</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.0005261467020982</v>
-      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="n">
-        <v>0.0034314317226407</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.0002142245127542</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.0425923219994788</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1139,7 +1175,9 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>0.0006387356599515332</v>
+      </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -1150,23 +1188,39 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2050</v>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>0.05183475366938666</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.06922492008954244</v>
+      </c>
       <c r="E31" t="n">
-        <v>0.0006387356599515332</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>0.007944615107748893</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.005700236873728828</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0005261467129415369</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.897868312291493e-07</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.004806128536802855</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0002142245138949509</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0425923245885298</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Outputs/PtX_demand_NL.xlsx
+++ b/Outputs/PtX_demand_NL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,7 +606,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -615,17 +615,21 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.002829808492279384</v>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>0.0004257505736205</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -634,27 +638,17 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>0.0126833508877942</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.000180631468834</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>0.0201073086329636</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.0001371059994361</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.0259973854341129</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -663,17 +657,29 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.0126833508877942</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.000180631468834</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.007516691846522</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0201073086329636</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0001371059994361</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0259973854341129</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -681,174 +687,176 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>8.820543722503238e-05</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.1353900801138015</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0012721344657017</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.06869851052436481</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1270774641633629</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0008299029030332</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.2440411302673871</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2030</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.004849937118253851</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.0566257726079815</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.001206125328823675</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.01356345798861439</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.000180631468834</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.747231989446974e-09</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.02078038315630393</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.0001371059994361</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.0259973854341129</v>
-      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2040</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.01992463443234875</v>
-      </c>
+        <v>2030</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>0.003584861244587386</v>
-      </c>
+      <c r="E12" t="n">
+        <v>8.820543722503238e-05</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>2.299736609075437e-07</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.0008298263079343</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2040</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>2030</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.004849937118253851</v>
+      </c>
       <c r="D13" t="n">
-        <v>0.0168924454810686</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>0.0566257726079815</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.001206125328823675</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1517833465946953</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0014527659345357</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.07621520511811879</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.1482835978932873</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0009670089024692999</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.2700385157015</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2040</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>0.04469011666957987</v>
-      </c>
+      <c r="C14" t="n">
+        <v>0.01992463443234875</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.003584861244587386</v>
+      </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>2.299736609075437e-07</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0008298263079343</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2040</v>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>0.0168924454810686</v>
+      </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>1.228488936317878e-09</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>2.590471797961311e-10</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>2040</v>
       </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>0.003849401952734385</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.000199066963544479</v>
-      </c>
+      <c r="D16" t="n">
+        <v>0.04469011666957987</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>0.0001783309686270224</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -857,17 +865,21 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>1.228488936317878e-09</v>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>2.590471797961311e-10</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -875,28 +887,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0.003849401952734385</v>
+      </c>
       <c r="F18" t="n">
-        <v>0.005149611513421999</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.0002944590938452</v>
-      </c>
+        <v>0.000199066963544479</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.0133033051550514</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.0001665615372356</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.0301427250014024</v>
-      </c>
+        <v>0.0001783309686270224</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -905,17 +913,21 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0.001465163543308868</v>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.0004520604269044</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -923,9 +935,7 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>0.0003082428755395282</v>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -936,32 +946,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2040</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.01992463443234875</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.06158256215064847</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.004157644828273913</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>0.008933540950042802</v>
+        <v>0.005149611513421999</v>
       </c>
       <c r="G21" t="n">
         <v>0.0002944590938452</v>
       </c>
       <c r="H21" t="n">
-        <v>2.299736609075437e-07</v>
+        <v>0.009150498120629199</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0143114626906599</v>
+        <v>0.0133033051550514</v>
       </c>
       <c r="J21" t="n">
         <v>0.0001665615372356</v>
@@ -973,43 +977,45 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2050</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.05183475366938666</v>
-      </c>
+        <v>2040</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.004948462754339134</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>0.0371026525835975</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0013676152776829</v>
+      </c>
       <c r="H22" t="n">
-        <v>3.897868312291493e-07</v>
+        <v>0.06476985866080399</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0013235829872827</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>0.0569005095930935</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0007364645791344999</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.2342383394986932</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="n">
-        <v>0.0189887875350703</v>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1021,17 +1027,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="n">
-        <v>0.05023613255447214</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>0.0003082428755395282</v>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1042,47 +1048,63 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2050</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+        <v>2040</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.01992463443234875</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.06158256215064847</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.004157644828273913</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.26388055600474e-09</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+        <v>0.04750135707694917</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0016620743715281</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.07392058675509409</v>
+      </c>
       <c r="I25" t="n">
-        <v>6.648712955993891e-09</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>0.0716640327106578</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0009030261163700999</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.2643810645000956</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2050</v>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>0.05183475366938666</v>
+      </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
-        <v>0.00730587944779736</v>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>2.440111278495978e-05</v>
+        <v>0.004948462754339134</v>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>3.897868312291493e-07</v>
+      </c>
       <c r="I26" t="n">
-        <v>5.110695766263079e-05</v>
+        <v>0.0013235829872827</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1090,65 +1112,49 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>2050</v>
       </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0.0189887875350703</v>
+      </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>8.125075711298653e-11</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.084333688676964e-11</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="n">
-        <v>2.205038687847974e-10</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.140750937685103e-12</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.589051001723168e-09</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>2050</v>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>0.05023613255447214</v>
+      </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
-        <v>0.0007273686614734217</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.0005261467020982</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="n">
-        <v>0.0034314317226407</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.0002142245127542</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.0425923219994788</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1157,17 +1163,21 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>4.26388055600474e-09</v>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>6.648712955993891e-09</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1176,50 +1186,210 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.0006387356599515332</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
+        <v>0.00730587944779736</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.440111278495978e-05</v>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>5.110695766263079e-05</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2050</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>5.254108439513384e-05</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>0.0001681023845866508</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Synthetic Liquids</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>8.125075711298653e-11</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.084333688676964e-11</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.525438284182439e-10</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.205038687847974e-10</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.140750937685103e-12</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.589051001723168e-09</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Biogenic Liquids</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>0.0007273686614734217</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0005261467020982</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0119851810380149</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0034314317226407</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0002142245127542</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0425923219994788</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fossil Liquids</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>0.0047371849411114</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0012335310614793</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0587379235030874</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.010132367438695</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.000633912547509</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.2155548826456272</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Biomass [Solid]</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Renewable Energy Carrier</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0.0006387356599515332</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Overall Demand</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C37" t="n">
         <v>0.05183475366938666</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D37" t="n">
         <v>0.06922492008954244</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E37" t="n">
         <v>0.007944615107748893</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.005700236873728828</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.0005261467129415369</v>
-      </c>
-      <c r="H31" t="n">
-        <v>3.897868312291493e-07</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.004806128536802855</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.0002142245138949509</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.0425923245885298</v>
+      <c r="F37" t="n">
+        <v>0.01048996289923536</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.001759677774420837</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.07072349468047735</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.01510659836008451</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.0008481370614039508</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.258147207234157</v>
       </c>
     </row>
   </sheetData>
